--- a/Tariff_Programs.xlsx
+++ b/Tariff_Programs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdedola/appdev/RateCast_All/RateCast_iOS_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{301F767B-7A5C-8245-A47C-FE601D864F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E8EB63-63A6-EB4A-ADAF-7426B7B12BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="3520" windowWidth="27240" windowHeight="16440" xr2:uid="{E95F9E90-43DC-8F42-8409-1A9B6830937F}"/>
+    <workbookView minimized="1" xWindow="7260" yWindow="3520" windowWidth="33700" windowHeight="17900" activeTab="1" xr2:uid="{E95F9E90-43DC-8F42-8409-1A9B6830937F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tariff Programs" sheetId="1" r:id="rId1"/>
+    <sheet name="special tariffs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
   <si>
     <t>Code</t>
   </si>
@@ -297,13 +298,244 @@
   </si>
   <si>
     <t>Singapore</t>
+  </si>
+  <si>
+    <t>Thank you for your confirmation. Below is an updated and comprehensive table of all currently active U.S. additive duties as of May 31, 2025. This includes both longstanding measures and recent temporary actions, such as the 90-day reciprocal tariff reduction with China. Each entry specifies the applicable HTS codes, effective and expiration dates, and pertinent notes.</t>
+  </si>
+  <si>
+    <t>🇺🇸 Active U.S. Additive Duties (as of May 31, 2025)</t>
+  </si>
+  <si>
+    <t>Name / Known As</t>
+  </si>
+  <si>
+    <t>Target Country</t>
+  </si>
+  <si>
+    <t>Target Countries</t>
+  </si>
+  <si>
+    <t>Applicable HTS Code(s)</t>
+  </si>
+  <si>
+    <t>Exception HTS Codes</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Section 301 Tariffs – List 1</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Various HTS codes (approx. $34B in goods)</t>
+  </si>
+  <si>
+    <t>Indefinite</t>
+  </si>
+  <si>
+    <t>25% tariff on ~$34B of Chinese imports.</t>
+  </si>
+  <si>
+    <t>Section 301 Tariffs – List 2</t>
+  </si>
+  <si>
+    <t>Various HTS codes (approx. $16B in goods)</t>
+  </si>
+  <si>
+    <t>25% tariff on ~$16B of Chinese imports.</t>
+  </si>
+  <si>
+    <t>Section 301 Tariffs – List 3</t>
+  </si>
+  <si>
+    <t>Various HTS codes (approx. $200B in goods)</t>
+  </si>
+  <si>
+    <t>25% tariff on ~$200B of Chinese imports.</t>
+  </si>
+  <si>
+    <t>Section 301 Tariffs – List 4A</t>
+  </si>
+  <si>
+    <t>Various HTS codes (approx. $120B in goods)</t>
+  </si>
+  <si>
+    <t>7.5% tariff on ~$120B of Chinese imports.</t>
+  </si>
+  <si>
+    <t>Section 232 Tariffs – Steel</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>All countries</t>
+  </si>
+  <si>
+    <t>HTS Chapters 72 &amp; 73</t>
+  </si>
+  <si>
+    <t>25% tariff on steel imports; effective June 4, 2025, rate increases to 50%.</t>
+  </si>
+  <si>
+    <t>Section 232 Tariffs – Aluminum</t>
+  </si>
+  <si>
+    <t>HTS Chapter 76</t>
+  </si>
+  <si>
+    <t>25% tariff on aluminum imports; effective June 4, 2025, rate increases to 50%.</t>
+  </si>
+  <si>
+    <t>Section 201 Safeguard – Solar Panels</t>
+  </si>
+  <si>
+    <t>HTS 8541.42.00 &amp; 8541.43.00</t>
+  </si>
+  <si>
+    <t>Bifacial panels exempt</t>
+  </si>
+  <si>
+    <t>Tariff-rate quota with declining rates; extended for 4 years in 2022.</t>
+  </si>
+  <si>
+    <t>Suspension of NTR – Russia &amp; Belarus</t>
+  </si>
+  <si>
+    <t>Russia, Belarus</t>
+  </si>
+  <si>
+    <t>Various HTS codes</t>
+  </si>
+  <si>
+    <t>Column 2 duty rates applied; additional increases on certain products.</t>
+  </si>
+  <si>
+    <t>Reciprocal Tariffs – China (Temporary Reduction)</t>
+  </si>
+  <si>
+    <t>All HTS chapters</t>
+  </si>
+  <si>
+    <t>Certain electronics</t>
+  </si>
+  <si>
+    <t>Tariffs reduced from 145% to 30% (10% reciprocal + 20% fentanyl-related); 90-day agreement.</t>
+  </si>
+  <si>
+    <t>Reciprocal Tariffs – Canada</t>
+  </si>
+  <si>
+    <t>USMCA-origin goods</t>
+  </si>
+  <si>
+    <t>25% tariff on imports; energy products at 10%; USMCA goods exempt as of March 7, 2025.</t>
+  </si>
+  <si>
+    <t>Reciprocal Tariffs – Mexico</t>
+  </si>
+  <si>
+    <t>25% tariff on imports; potash at 10%; USMCA goods exempt as of March 7, 2025.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <r>
+      <t>Section 301 Tariffs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Imposed in response to China’s unfair trade practices; remain in effect with varying rates across different lists.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Section 232 Tariffs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Initially set at 25% for steel and 10% for aluminum; both increased to 50% effective June 4, 2025, citing national security concerns.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Section 201 Safeguard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Applies to solar panels; includes a tariff-rate quota system with declining rates over time; extended through February 6, 2026.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Suspension of NTR:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Russia and Belarus are subject to higher Column 2 duty rates; additional increases applied to certain products.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reciprocal Tariffs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Temporary reduction with China is part of a 90-day agreement; tariffs on Canada and Mexico are ongoing, with exemptions for USMCA-origin goods.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you require further details on specific HTS codes, product categories, or additional context on these duties, feel free to ask.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +554,22 @@
       <color rgb="FF1B1B1B"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,10 +592,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806DA83-62AB-4444-BD3A-F3D345821E71}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
@@ -1037,5 +1291,416 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6428607-41D1-5549-961E-ECA3B2227CC0}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43287</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43335</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43367</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="5">
+        <v>43709</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43182</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43182</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43138</v>
+      </c>
+      <c r="H14" s="5">
+        <v>46059</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44659</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45791</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45881</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45720</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="5">
+        <v>45720</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>